--- a/data/trans_camb/LAWTONB_2R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 26,16</t>
+          <t>-13,78; 24,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 16,93</t>
+          <t>-19,36; 17,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 40,97</t>
+          <t>5,21; 40,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,85; 53,95</t>
+          <t>14,97; 54,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 45,94</t>
+          <t>6,26; 47,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 41,02</t>
+          <t>7,89; 42,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 36,38</t>
+          <t>6,46; 35,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 27,45</t>
+          <t>-1,09; 28,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 36,74</t>
+          <t>12,46; 37,56</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 192,84</t>
+          <t>-41,63; 168,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 124,06</t>
+          <t>-57,2; 134,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 313,82</t>
+          <t>12,24; 293,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,02; 388,33</t>
+          <t>40,53; 397,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 323,34</t>
+          <t>15,67; 331,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 278,04</t>
+          <t>18,05; 316,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,78; 196,33</t>
+          <t>17,71; 199,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 147,64</t>
+          <t>-5,54; 162,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,17; 223,36</t>
+          <t>33,0; 220,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 22,32</t>
+          <t>-11,13; 20,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 4,63</t>
+          <t>-23,63; 3,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 9,04</t>
+          <t>-19,75; 8,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 31,69</t>
+          <t>7,25; 32,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 23,52</t>
+          <t>-1,66; 24,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 31,86</t>
+          <t>7,72; 30,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 24,07</t>
+          <t>2,1; 22,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 11,59</t>
+          <t>-7,34; 12,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 19,76</t>
+          <t>3,26; 20,16</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 141,22</t>
+          <t>-36,69; 122,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,64; 31,44</t>
+          <t>-69,57; 27,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,35; 58,97</t>
+          <t>-58,44; 58,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 188,93</t>
+          <t>23,79; 194,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 140,95</t>
+          <t>-5,89; 146,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,81; 188,34</t>
+          <t>23,65; 188,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 138,49</t>
+          <t>8,03; 119,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 63,84</t>
+          <t>-25,84; 65,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 115,21</t>
+          <t>11,23; 110,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 23,05</t>
+          <t>-9,67; 21,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 15,45</t>
+          <t>-11,94; 16,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 28,28</t>
+          <t>1,93; 29,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 5,93</t>
+          <t>-24,58; 5,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -6,43</t>
+          <t>-36,32; -5,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 21,53</t>
+          <t>-5,42; 22,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 7,37</t>
+          <t>-15,98; 6,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -1,54</t>
+          <t>-22,47; -0,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 20,18</t>
+          <t>0,2; 19,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 185,14</t>
+          <t>-32,95; 185,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 121,84</t>
+          <t>-40,57; 133,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 226,87</t>
+          <t>5,72; 231,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 17,99</t>
+          <t>-50,15; 14,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,46; -16,49</t>
+          <t>-73,28; -14,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 62,48</t>
+          <t>-10,46; 65,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 26,28</t>
+          <t>-39,85; 23,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,09; -5,73</t>
+          <t>-57,08; -1,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 76,35</t>
+          <t>-0,82; 71,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 22,53</t>
+          <t>-12,29; 21,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 13,36</t>
+          <t>-21,15; 10,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 9,14</t>
+          <t>-19,69; 8,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 18,4</t>
+          <t>-12,28; 17,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 3,41</t>
+          <t>-26,71; 4,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 3,99</t>
+          <t>-21,68; 3,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 15,7</t>
+          <t>-7,17; 15,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 2,24</t>
+          <t>-19,13; 2,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 3,08</t>
+          <t>-16,34; 2,5</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 113,4</t>
+          <t>-34,7; 120,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 72,29</t>
+          <t>-58,16; 59,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 55,19</t>
+          <t>-51,64; 49,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 50,53</t>
+          <t>-24,7; 49,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 9,64</t>
+          <t>-53,35; 13,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,09; 12,7</t>
+          <t>-39,63; 12,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 50,44</t>
+          <t>-16,07; 52,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 7,76</t>
+          <t>-46,98; 6,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,32; 11,13</t>
+          <t>-38,25; 9,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 23,42</t>
+          <t>-24,02; 21,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-36,3; -0,42</t>
+          <t>-37,1; -1,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 13,13</t>
+          <t>-23,26; 13,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 35,73</t>
+          <t>-7,91; 33,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 30,2</t>
+          <t>-13,12; 30,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 9,61</t>
+          <t>-27,22; 6,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 23,1</t>
+          <t>-8,99; 23,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 12,07</t>
+          <t>-19,04; 10,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 7,42</t>
+          <t>-18,83; 6,56</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 136,49</t>
+          <t>-61,82; 116,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-86,19; 10,61</t>
+          <t>-88,4; 3,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,51; 74,39</t>
+          <t>-54,39; 84,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 131,22</t>
+          <t>-16,62; 133,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 122,58</t>
+          <t>-24,59; 119,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 42,56</t>
+          <t>-52,8; 21,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 89,02</t>
+          <t>-23,42; 84,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 48,0</t>
+          <t>-46,1; 43,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 31,05</t>
+          <t>-43,3; 27,49</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 16,42</t>
+          <t>-21,76; 16,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 10,31</t>
+          <t>-24,52; 11,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 17,22</t>
+          <t>-14,75; 16,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 6,44</t>
+          <t>-25,02; 5,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 14,8</t>
+          <t>-24,35; 12,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 24,89</t>
+          <t>-2,75; 24,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 5,32</t>
+          <t>-18,61; 6,27</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 6,57</t>
+          <t>-18,8; 5,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 16,94</t>
+          <t>-4,29; 16,33</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 57,77</t>
+          <t>-45,65; 61,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,98; 40,46</t>
+          <t>-51,02; 49,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 66,78</t>
+          <t>-29,26; 66,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-53,75; 21,67</t>
+          <t>-54,91; 17,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 49,83</t>
+          <t>-50,65; 41,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 80,93</t>
+          <t>-5,55; 83,04</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 16,65</t>
+          <t>-41,83; 18,92</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 19,15</t>
+          <t>-42,12; 17,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 51,85</t>
+          <t>-9,12; 53,86</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 19,29</t>
+          <t>-3,03; 19,13</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 16,95</t>
+          <t>-5,01; 16,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 9,04</t>
+          <t>-9,96; 9,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 13,69</t>
+          <t>-10,88; 12,74</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 20,85</t>
+          <t>-3,75; 21,27</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 9,14</t>
+          <t>-40,21; 9,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 12,92</t>
+          <t>-4,41; 12,95</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 16,39</t>
+          <t>-0,43; 16,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 5,35</t>
+          <t>-27,39; 5,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 142,76</t>
+          <t>-15,19; 135,82</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 128,27</t>
+          <t>-21,51; 125,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 73,35</t>
+          <t>-40,83; 72,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 50,94</t>
+          <t>-28,07; 47,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 77,6</t>
+          <t>-9,62; 82,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-88,5; 30,58</t>
+          <t>-86,65; 29,61</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 58,03</t>
+          <t>-14,12; 60,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 72,85</t>
+          <t>-1,25; 77,67</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-80,72; 22,0</t>
+          <t>-82,66; 20,44</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-25,77; -3,33</t>
+          <t>-26,77; -3,04</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -3,25</t>
+          <t>-23,72; -2,18</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-28,2; -9,15</t>
+          <t>-28,03; -9,35</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 9,41</t>
+          <t>-11,48; 10,48</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 11,64</t>
+          <t>-10,38; 12,87</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 13,12</t>
+          <t>-5,54; 13,47</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 0,63</t>
+          <t>-15,24; 0,77</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 2,36</t>
+          <t>-12,96; 2,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 1,23</t>
+          <t>-12,5; 1,38</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -8,45</t>
+          <t>-70,02; -9,37</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-64,85; -11,86</t>
+          <t>-62,46; -7,39</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-72,19; -34,3</t>
+          <t>-72,03; -36,55</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 36,11</t>
+          <t>-30,28; 43,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 42,11</t>
+          <t>-28,0; 49,49</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 51,67</t>
+          <t>-14,84; 53,82</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 3,26</t>
+          <t>-41,92; 3,5</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 8,51</t>
+          <t>-36,89; 10,22</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 3,88</t>
+          <t>-34,24; 5,21</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,95</t>
+          <t>-4,59; 6,5</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,86</t>
+          <t>-10,09; -0,37</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,83</t>
+          <t>-5,73; 3,8</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,61</t>
+          <t>-0,81; 10,08</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,8</t>
+          <t>-4,1; 6,19</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 8,4</t>
+          <t>-18,01; 8,45</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,01</t>
+          <t>-1,84; 6,43</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 1,86</t>
+          <t>-5,21; 2,3</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 4,29</t>
+          <t>-11,56; 4,48</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 26,14</t>
+          <t>-16,17; 27,87</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -3,53</t>
+          <t>-34,16; -1,34</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 16,55</t>
+          <t>-19,63; 16,93</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 30,04</t>
+          <t>-2,19; 31,6</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 21,62</t>
+          <t>-11,26; 19,51</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 25,71</t>
+          <t>-51,56; 25,93</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 20,82</t>
+          <t>-5,51; 22,39</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,46</t>
+          <t>-15,82; 7,81</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 14,3</t>
+          <t>-34,23; 14,71</t>
         </is>
       </c>
     </row>
